--- a/tests/introl.timesheets.api.tests.acceptance/Resources/timesheet_input.xlsx
+++ b/tests/introl.timesheets.api.tests.acceptance/Resources/timesheet_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/personal/introl.timesheets/tests/introl.timesheets.api.tests.acceptance/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C59AD-812F-5143-989B-827584ED211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17D954-A245-3347-BB7F-DCBF318D622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Summary" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14396" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14418" uniqueCount="497">
   <si>
     <t>Weekly Timesheets</t>
   </si>
@@ -1476,9 +1476,6 @@
     <t>ZA-1</t>
   </si>
   <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -1531,6 +1528,63 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>Regular hours only</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>OT hours only</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2326,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2478,7 +2532,7 @@
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>16</v>
@@ -2492,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>17</v>
@@ -2558,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>17</v>
@@ -2577,7 +2631,7 @@
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>16</v>
@@ -2595,7 +2649,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>17</v>
@@ -2604,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="9"/>
@@ -2619,10 +2673,10 @@
         <v>271</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F13" s="40">
         <v>7</v>
@@ -2651,13 +2705,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>17</v>
@@ -2672,7 +2726,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K14" s="39">
         <v>82.5</v>
@@ -2682,7 +2736,7 @@
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>16</v>
@@ -2745,7 +2799,7 @@
         <v>28</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="3"/>
@@ -2759,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E17" s="40">
         <v>10</v>
@@ -2780,38 +2834,78 @@
         <v>77</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="39"/>
+      <c r="A18" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>486</v>
+      </c>
       <c r="K18" s="39"/>
       <c r="L18" s="9"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+    <row r="19" spans="1:19" ht="16" thickBot="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
+        <v>2</v>
+      </c>
+      <c r="E19" s="37">
+        <v>3</v>
+      </c>
+      <c r="F19" s="37">
+        <v>4</v>
+      </c>
+      <c r="G19" s="37">
+        <v>5</v>
+      </c>
+      <c r="H19" s="37">
+        <v>6</v>
+      </c>
+      <c r="I19" s="38">
+        <v>7</v>
+      </c>
+      <c r="J19" s="37">
+        <v>28</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>487</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2822,32 +2916,72 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="16" thickBot="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="7"/>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="27">
+        <v>8</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" s="40">
+        <v>10</v>
+      </c>
+      <c r="F21" s="40">
+        <v>11</v>
+      </c>
+      <c r="G21" s="40">
+        <v>12</v>
+      </c>
+      <c r="H21" s="40">
+        <v>13</v>
+      </c>
+      <c r="I21" s="41">
+        <v>14</v>
+      </c>
+      <c r="J21" s="39">
+        <v>77</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>496</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="3"/>
     </row>
@@ -3007,7 +3141,7 @@
   <dimension ref="A1:AL772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3810,7 +3944,7 @@
     </row>
     <row r="9" spans="1:38" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>248</v>
@@ -3824,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>259</v>
@@ -4030,7 +4164,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H11" s="45" t="s">
         <v>259</v>
@@ -4116,7 +4250,7 @@
     </row>
     <row r="12" spans="1:38" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>248</v>
@@ -4134,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>276</v>
@@ -4143,7 +4277,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>277</v>
@@ -4229,10 +4363,10 @@
         <v>271</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F13" s="45">
         <v>7</v>
@@ -4306,13 +4440,13 @@
         <v>248</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>18</v>
@@ -4327,7 +4461,7 @@
         <v>32</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>277</v>
@@ -4404,7 +4538,7 @@
     </row>
     <row r="15" spans="1:38" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>248</v>
@@ -4514,7 +4648,7 @@
         <v>28</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>32</v>
@@ -4597,7 +4731,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E17" s="45">
         <v>10</v>
@@ -4618,68 +4752,88 @@
         <v>77</v>
       </c>
       <c r="K17" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T17" s="22">
+        <v>0</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0</v>
+      </c>
+      <c r="V17" s="22">
+        <v>0</v>
+      </c>
+      <c r="W17" s="22">
+        <v>0</v>
+      </c>
+      <c r="X17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="T17" s="22">
-        <v>0</v>
-      </c>
-      <c r="U17" s="22">
-        <v>0</v>
-      </c>
-      <c r="V17" s="22">
-        <v>0</v>
-      </c>
-      <c r="W17" s="22">
-        <v>0</v>
-      </c>
-      <c r="X17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="44">
-        <v>45483</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
+      <c r="B18" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>252</v>
+      </c>
       <c r="M18" s="1" t="s">
         <v>252</v>
       </c>
@@ -4727,38 +4881,38 @@
       </c>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="21">
-        <v>45483</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>252</v>
+      <c r="A19" s="44">
+        <v>45481</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="45">
+        <v>1</v>
+      </c>
+      <c r="D19" s="45">
+        <v>2</v>
+      </c>
+      <c r="E19" s="45">
+        <v>3</v>
+      </c>
+      <c r="F19" s="45">
+        <v>4</v>
+      </c>
+      <c r="G19" s="45">
+        <v>5</v>
+      </c>
+      <c r="H19" s="45">
+        <v>6</v>
+      </c>
+      <c r="I19" s="45">
+        <v>7</v>
+      </c>
+      <c r="J19" s="45">
+        <v>28</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>487</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>252</v>
@@ -4813,37 +4967,37 @@
       </c>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="21">
-        <v>45484</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="A20" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="K20" s="45" t="s">
         <v>252</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -4896,38 +5050,38 @@
       </c>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="21">
-        <v>45484</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>252</v>
+      <c r="A21" s="44">
+        <v>45481</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="27">
+        <v>8</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" s="45">
+        <v>10</v>
+      </c>
+      <c r="F21" s="45">
+        <v>11</v>
+      </c>
+      <c r="G21" s="45">
+        <v>12</v>
+      </c>
+      <c r="H21" s="45">
+        <v>13</v>
+      </c>
+      <c r="I21" s="45">
+        <v>14</v>
+      </c>
+      <c r="J21" s="45">
+        <v>77</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>496</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>252</v>
@@ -4983,7 +5137,7 @@
         <v>45484</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
@@ -5066,7 +5220,7 @@
         <v>45484</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
@@ -5149,7 +5303,7 @@
         <v>45484</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
@@ -5232,7 +5386,7 @@
         <v>45484</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
@@ -5312,7 +5466,7 @@
         <v>45484</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>43</v>
@@ -6421,7 +6575,7 @@
         <v>45484</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>63</v>
@@ -6504,7 +6658,7 @@
         <v>45484</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>64</v>
@@ -6587,7 +6741,7 @@
         <v>45484</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>65</v>
@@ -6670,7 +6824,7 @@
         <v>45484</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>66</v>
@@ -6753,7 +6907,7 @@
         <v>45484</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>67</v>
@@ -6836,7 +6990,7 @@
         <v>45484</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>68</v>
@@ -6919,7 +7073,7 @@
         <v>45484</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>69</v>
@@ -7002,7 +7156,7 @@
         <v>45484</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>70</v>
@@ -7082,7 +7236,7 @@
         <v>45484</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>71</v>
@@ -7165,7 +7319,7 @@
         <v>45484</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>72</v>
@@ -7248,7 +7402,7 @@
         <v>45484</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>73</v>
@@ -7331,7 +7485,7 @@
         <v>45484</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>74</v>
@@ -7414,7 +7568,7 @@
         <v>45484</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>75</v>
@@ -7494,7 +7648,7 @@
         <v>45484</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>76</v>
@@ -7577,7 +7731,7 @@
         <v>45484</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>77</v>
@@ -7660,7 +7814,7 @@
         <v>45484</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>78</v>
@@ -7743,7 +7897,7 @@
         <v>45484</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>79</v>
@@ -7826,7 +7980,7 @@
         <v>45484</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>80</v>
@@ -7909,7 +8063,7 @@
         <v>45484</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>81</v>
@@ -7992,7 +8146,7 @@
         <v>45484</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>82</v>
@@ -8075,7 +8229,7 @@
         <v>45484</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>83</v>
@@ -8158,7 +8312,7 @@
         <v>45484</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>84</v>
@@ -8241,7 +8395,7 @@
         <v>45484</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>85</v>
@@ -8324,7 +8478,7 @@
         <v>45484</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>85</v>
@@ -8407,7 +8561,7 @@
         <v>45484</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>86</v>
@@ -8490,7 +8644,7 @@
         <v>45484</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>87</v>
@@ -8573,7 +8727,7 @@
         <v>45484</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>88</v>
@@ -8656,7 +8810,7 @@
         <v>45484</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
@@ -8739,7 +8893,7 @@
         <v>45484</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>90</v>
@@ -8819,7 +8973,7 @@
         <v>45484</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>91</v>
@@ -8902,7 +9056,7 @@
         <v>45484</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>92</v>
@@ -8985,7 +9139,7 @@
         <v>45484</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>93</v>
@@ -9068,7 +9222,7 @@
         <v>45484</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>94</v>
@@ -9151,7 +9305,7 @@
         <v>45484</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>95</v>
@@ -9234,7 +9388,7 @@
         <v>45484</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>96</v>
@@ -9317,7 +9471,7 @@
         <v>45484</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>97</v>
@@ -9400,7 +9554,7 @@
         <v>45484</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>98</v>
@@ -9483,7 +9637,7 @@
         <v>45484</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>99</v>
@@ -9566,7 +9720,7 @@
         <v>45484</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>100</v>
@@ -9649,7 +9803,7 @@
         <v>45484</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>101</v>
@@ -9732,7 +9886,7 @@
         <v>45484</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>102</v>
@@ -9815,7 +9969,7 @@
         <v>45484</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>103</v>
@@ -9898,7 +10052,7 @@
         <v>45484</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>104</v>
@@ -9981,7 +10135,7 @@
         <v>45484</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>105</v>
@@ -10064,7 +10218,7 @@
         <v>45484</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>106</v>
@@ -10147,7 +10301,7 @@
         <v>45484</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>108</v>
@@ -10230,7 +10384,7 @@
         <v>45484</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>109</v>
@@ -10313,7 +10467,7 @@
         <v>45484</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>110</v>
@@ -10396,7 +10550,7 @@
         <v>45484</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>111</v>
@@ -10479,7 +10633,7 @@
         <v>45484</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>112</v>
@@ -10562,7 +10716,7 @@
         <v>45484</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>113</v>
@@ -10645,7 +10799,7 @@
         <v>45484</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>114</v>
@@ -10728,7 +10882,7 @@
         <v>45484</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>115</v>
@@ -10811,7 +10965,7 @@
         <v>45484</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>116</v>
@@ -10894,7 +11048,7 @@
         <v>45484</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>117</v>
@@ -10977,7 +11131,7 @@
         <v>45484</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>118</v>
@@ -11060,7 +11214,7 @@
         <v>45484</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>119</v>
@@ -11143,7 +11297,7 @@
         <v>45484</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>120</v>
@@ -11226,7 +11380,7 @@
         <v>45484</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>121</v>
@@ -11309,7 +11463,7 @@
         <v>45484</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>122</v>
@@ -11392,7 +11546,7 @@
         <v>45484</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>123</v>
@@ -11475,7 +11629,7 @@
         <v>45484</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>124</v>
@@ -11558,7 +11712,7 @@
         <v>45484</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>125</v>
@@ -11641,7 +11795,7 @@
         <v>45484</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>126</v>
@@ -11724,7 +11878,7 @@
         <v>45484</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>127</v>
@@ -11807,7 +11961,7 @@
         <v>45484</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>128</v>
@@ -11890,7 +12044,7 @@
         <v>45484</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>129</v>
@@ -11973,7 +12127,7 @@
         <v>45484</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>130</v>
@@ -12056,7 +12210,7 @@
         <v>45484</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>131</v>
@@ -12136,7 +12290,7 @@
         <v>45484</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>132</v>
@@ -12219,7 +12373,7 @@
         <v>45484</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>133</v>
@@ -12302,7 +12456,7 @@
         <v>45484</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>134</v>
@@ -12385,7 +12539,7 @@
         <v>45484</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>135</v>
@@ -12465,7 +12619,7 @@
         <v>45484</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>136</v>
@@ -12545,7 +12699,7 @@
         <v>45484</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>137</v>
@@ -12628,7 +12782,7 @@
         <v>45484</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>138</v>
@@ -12711,7 +12865,7 @@
         <v>45484</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>139</v>
@@ -12794,7 +12948,7 @@
         <v>45484</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>140</v>
@@ -12877,7 +13031,7 @@
         <v>45484</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>141</v>
@@ -12960,7 +13114,7 @@
         <v>45484</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>142</v>
@@ -13043,7 +13197,7 @@
         <v>45484</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>143</v>
@@ -13126,7 +13280,7 @@
         <v>45484</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>144</v>
@@ -13209,7 +13363,7 @@
         <v>45484</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>145</v>
@@ -13292,7 +13446,7 @@
         <v>45484</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>146</v>
@@ -13375,7 +13529,7 @@
         <v>45484</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>147</v>
@@ -13458,7 +13612,7 @@
         <v>45484</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>148</v>
@@ -13541,7 +13695,7 @@
         <v>45484</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>149</v>
@@ -13624,7 +13778,7 @@
         <v>45484</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>150</v>
@@ -13707,7 +13861,7 @@
         <v>45484</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>151</v>
@@ -13790,7 +13944,7 @@
         <v>45484</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>152</v>
@@ -13873,7 +14027,7 @@
         <v>45484</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>153</v>
@@ -13956,7 +14110,7 @@
         <v>45484</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>154</v>
@@ -14039,7 +14193,7 @@
         <v>45484</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>155</v>
@@ -14122,7 +14276,7 @@
         <v>45484</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>156</v>
@@ -14205,7 +14359,7 @@
         <v>45484</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>157</v>
@@ -14288,7 +14442,7 @@
         <v>45484</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>158</v>
@@ -14371,7 +14525,7 @@
         <v>45484</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>159</v>
@@ -14454,7 +14608,7 @@
         <v>45484</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>160</v>
@@ -14537,7 +14691,7 @@
         <v>45484</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>161</v>
@@ -14620,7 +14774,7 @@
         <v>45484</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>162</v>
@@ -14703,7 +14857,7 @@
         <v>45484</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>163</v>
@@ -14786,7 +14940,7 @@
         <v>45484</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>164</v>
@@ -14869,7 +15023,7 @@
         <v>45484</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>165</v>
@@ -14952,7 +15106,7 @@
         <v>45484</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>166</v>
@@ -15035,7 +15189,7 @@
         <v>45484</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>167</v>
@@ -15118,7 +15272,7 @@
         <v>45484</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>168</v>
@@ -15201,7 +15355,7 @@
         <v>45484</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>169</v>
@@ -15284,7 +15438,7 @@
         <v>45484</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>170</v>
@@ -15367,7 +15521,7 @@
         <v>45484</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>171</v>
@@ -15450,7 +15604,7 @@
         <v>45484</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>172</v>
@@ -15533,7 +15687,7 @@
         <v>45484</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>173</v>
@@ -15616,7 +15770,7 @@
         <v>45484</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>174</v>
@@ -15699,7 +15853,7 @@
         <v>45484</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>175</v>
@@ -15782,7 +15936,7 @@
         <v>45484</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>176</v>
@@ -15865,7 +16019,7 @@
         <v>45484</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>177</v>
@@ -15948,7 +16102,7 @@
         <v>45484</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>178</v>
@@ -16031,7 +16185,7 @@
         <v>45484</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>179</v>
@@ -16114,7 +16268,7 @@
         <v>45484</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>180</v>
@@ -16197,7 +16351,7 @@
         <v>45484</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>181</v>
@@ -16280,7 +16434,7 @@
         <v>45484</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>182</v>
@@ -16363,7 +16517,7 @@
         <v>45484</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>183</v>
@@ -16446,7 +16600,7 @@
         <v>45484</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>184</v>
@@ -16529,7 +16683,7 @@
         <v>45484</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>185</v>
@@ -16612,7 +16766,7 @@
         <v>45484</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>186</v>
@@ -16695,7 +16849,7 @@
         <v>45484</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>187</v>
@@ -16778,7 +16932,7 @@
         <v>45484</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>188</v>
@@ -16861,7 +17015,7 @@
         <v>45484</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>189</v>
@@ -16944,7 +17098,7 @@
         <v>45484</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>190</v>
@@ -17027,7 +17181,7 @@
         <v>45484</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>191</v>
@@ -17110,7 +17264,7 @@
         <v>45484</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>192</v>
@@ -17193,7 +17347,7 @@
         <v>45484</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>193</v>
@@ -17276,7 +17430,7 @@
         <v>45484</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>194</v>
@@ -17359,7 +17513,7 @@
         <v>45484</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>195</v>
@@ -17442,7 +17596,7 @@
         <v>45484</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>196</v>
@@ -17525,7 +17679,7 @@
         <v>45484</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>197</v>
@@ -17608,7 +17762,7 @@
         <v>45484</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>198</v>
@@ -17691,7 +17845,7 @@
         <v>45484</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>199</v>
@@ -17774,7 +17928,7 @@
         <v>45484</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>200</v>
@@ -17857,7 +18011,7 @@
         <v>45484</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>200</v>
@@ -17937,7 +18091,7 @@
         <v>45484</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>201</v>
@@ -18020,7 +18174,7 @@
         <v>45484</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>202</v>
@@ -18103,7 +18257,7 @@
         <v>45484</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>203</v>
@@ -18186,7 +18340,7 @@
         <v>45484</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>204</v>
@@ -18269,7 +18423,7 @@
         <v>45484</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>205</v>
@@ -18352,7 +18506,7 @@
         <v>45484</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>206</v>
@@ -18435,7 +18589,7 @@
         <v>45484</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>207</v>
@@ -18518,7 +18672,7 @@
         <v>45484</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>208</v>
@@ -18601,7 +18755,7 @@
         <v>45484</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>209</v>
@@ -18684,7 +18838,7 @@
         <v>45484</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>210</v>
@@ -18767,7 +18921,7 @@
         <v>45484</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>211</v>
@@ -18850,7 +19004,7 @@
         <v>45484</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>212</v>
@@ -18933,7 +19087,7 @@
         <v>45484</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>213</v>
@@ -19016,7 +19170,7 @@
         <v>45484</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>15</v>
@@ -19099,7 +19253,7 @@
         <v>45484</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>21</v>
@@ -19182,7 +19336,7 @@
         <v>45484</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>23</v>
@@ -19265,7 +19419,7 @@
         <v>45484</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>25</v>
@@ -19348,7 +19502,7 @@
         <v>45484</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>27</v>
@@ -19431,7 +19585,7 @@
         <v>45484</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>29</v>
@@ -19514,7 +19668,7 @@
         <v>45484</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>30</v>
@@ -19597,7 +19751,7 @@
         <v>45484</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>33</v>
@@ -19680,7 +19834,7 @@
         <v>45484</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>34</v>
@@ -19763,7 +19917,7 @@
         <v>45484</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>35</v>
@@ -19846,7 +20000,7 @@
         <v>45485</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>36</v>
@@ -19929,7 +20083,7 @@
         <v>45485</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>38</v>
@@ -20012,7 +20166,7 @@
         <v>45485</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>39</v>
@@ -20095,7 +20249,7 @@
         <v>45485</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>40</v>
@@ -20178,7 +20332,7 @@
         <v>45485</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>41</v>
@@ -20261,7 +20415,7 @@
         <v>45485</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>42</v>
@@ -20341,7 +20495,7 @@
         <v>45485</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>43</v>
@@ -20424,7 +20578,7 @@
         <v>45485</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>44</v>
@@ -20507,7 +20661,7 @@
         <v>45485</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>45</v>
@@ -20590,7 +20744,7 @@
         <v>45485</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>46</v>
@@ -20673,7 +20827,7 @@
         <v>45485</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>47</v>
@@ -20756,7 +20910,7 @@
         <v>45485</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>48</v>
@@ -20839,7 +20993,7 @@
         <v>45485</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>49</v>
@@ -20922,7 +21076,7 @@
         <v>45485</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>50</v>
@@ -21005,7 +21159,7 @@
         <v>45485</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>51</v>
@@ -21088,7 +21242,7 @@
         <v>45485</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>52</v>
@@ -21171,7 +21325,7 @@
         <v>45485</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>53</v>
@@ -21254,7 +21408,7 @@
         <v>45485</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>54</v>
@@ -21337,7 +21491,7 @@
         <v>45485</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>55</v>
@@ -21420,7 +21574,7 @@
         <v>45485</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>56</v>
@@ -21503,7 +21657,7 @@
         <v>45485</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>57</v>
@@ -21586,7 +21740,7 @@
         <v>45485</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>58</v>
@@ -21669,7 +21823,7 @@
         <v>45485</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>59</v>
@@ -21752,7 +21906,7 @@
         <v>45485</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>60</v>
@@ -21835,7 +21989,7 @@
         <v>45485</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>61</v>
@@ -21918,7 +22072,7 @@
         <v>45485</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>62</v>
@@ -22001,7 +22155,7 @@
         <v>45485</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>63</v>
@@ -22084,7 +22238,7 @@
         <v>45485</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>64</v>
@@ -22167,7 +22321,7 @@
         <v>45485</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>65</v>
@@ -22250,7 +22404,7 @@
         <v>45485</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>66</v>
@@ -22333,7 +22487,7 @@
         <v>45485</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>67</v>
@@ -22416,7 +22570,7 @@
         <v>45485</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>68</v>
@@ -22499,7 +22653,7 @@
         <v>45485</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>69</v>
@@ -22582,7 +22736,7 @@
         <v>45485</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>70</v>
@@ -22662,7 +22816,7 @@
         <v>45485</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>71</v>
@@ -22745,7 +22899,7 @@
         <v>45485</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>72</v>
@@ -22828,7 +22982,7 @@
         <v>45485</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>73</v>
@@ -22911,7 +23065,7 @@
         <v>45485</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>74</v>
@@ -22994,7 +23148,7 @@
         <v>45485</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>75</v>
@@ -23074,7 +23228,7 @@
         <v>45485</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>76</v>
@@ -23157,7 +23311,7 @@
         <v>45485</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>77</v>
@@ -23240,7 +23394,7 @@
         <v>45485</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>78</v>
@@ -23323,7 +23477,7 @@
         <v>45485</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>79</v>
@@ -23406,7 +23560,7 @@
         <v>45485</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>80</v>
@@ -23489,7 +23643,7 @@
         <v>45485</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>81</v>
@@ -23572,7 +23726,7 @@
         <v>45485</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>82</v>
@@ -23655,7 +23809,7 @@
         <v>45485</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>83</v>
@@ -23738,7 +23892,7 @@
         <v>45485</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>84</v>
@@ -23821,7 +23975,7 @@
         <v>45485</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>85</v>
@@ -23904,7 +24058,7 @@
         <v>45485</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>85</v>
@@ -23987,7 +24141,7 @@
         <v>45485</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>86</v>
@@ -24070,7 +24224,7 @@
         <v>45485</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>87</v>
@@ -24153,7 +24307,7 @@
         <v>45485</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>88</v>
@@ -24236,7 +24390,7 @@
         <v>45485</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>89</v>
@@ -24319,7 +24473,7 @@
         <v>45485</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>90</v>
@@ -24399,7 +24553,7 @@
         <v>45485</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>91</v>
@@ -24482,7 +24636,7 @@
         <v>45485</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>92</v>
@@ -24565,7 +24719,7 @@
         <v>45485</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>93</v>
@@ -24648,7 +24802,7 @@
         <v>45485</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>94</v>
@@ -24731,7 +24885,7 @@
         <v>45485</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>95</v>
@@ -24814,7 +24968,7 @@
         <v>45485</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>96</v>
@@ -24897,7 +25051,7 @@
         <v>45485</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>97</v>
@@ -24980,7 +25134,7 @@
         <v>45485</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>98</v>
@@ -25063,7 +25217,7 @@
         <v>45485</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>99</v>
@@ -25146,7 +25300,7 @@
         <v>45485</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>100</v>
@@ -25229,7 +25383,7 @@
         <v>45485</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>101</v>
@@ -25312,7 +25466,7 @@
         <v>45485</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>102</v>
@@ -25395,7 +25549,7 @@
         <v>45485</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>103</v>
@@ -25478,7 +25632,7 @@
         <v>45485</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>104</v>
@@ -25561,7 +25715,7 @@
         <v>45485</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>105</v>
@@ -25644,7 +25798,7 @@
         <v>45485</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>106</v>
@@ -25727,7 +25881,7 @@
         <v>45485</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>108</v>
@@ -25810,7 +25964,7 @@
         <v>45485</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>109</v>
@@ -25893,7 +26047,7 @@
         <v>45485</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>110</v>
@@ -25976,7 +26130,7 @@
         <v>45485</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>111</v>
@@ -26059,7 +26213,7 @@
         <v>45485</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>112</v>
@@ -26142,7 +26296,7 @@
         <v>45485</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>113</v>
@@ -26225,7 +26379,7 @@
         <v>45485</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>114</v>
@@ -26308,7 +26462,7 @@
         <v>45485</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>115</v>
@@ -26391,7 +26545,7 @@
         <v>45485</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>116</v>
@@ -26474,7 +26628,7 @@
         <v>45485</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>117</v>
@@ -26557,7 +26711,7 @@
         <v>45485</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>118</v>
@@ -26640,7 +26794,7 @@
         <v>45485</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>119</v>
@@ -26723,7 +26877,7 @@
         <v>45485</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>120</v>
@@ -26806,7 +26960,7 @@
         <v>45485</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>121</v>
@@ -26889,7 +27043,7 @@
         <v>45485</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>122</v>
@@ -26972,7 +27126,7 @@
         <v>45485</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>123</v>
@@ -27055,7 +27209,7 @@
         <v>45485</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>124</v>
@@ -27138,7 +27292,7 @@
         <v>45485</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>125</v>
@@ -27221,7 +27375,7 @@
         <v>45485</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>126</v>
@@ -27304,7 +27458,7 @@
         <v>45485</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>127</v>
@@ -27387,7 +27541,7 @@
         <v>45485</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>128</v>
@@ -27470,7 +27624,7 @@
         <v>45485</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>129</v>
@@ -27553,7 +27707,7 @@
         <v>45485</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>130</v>
@@ -27636,7 +27790,7 @@
         <v>45485</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>131</v>
@@ -27716,7 +27870,7 @@
         <v>45485</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>132</v>
@@ -27799,7 +27953,7 @@
         <v>45485</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>133</v>
@@ -27882,7 +28036,7 @@
         <v>45485</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>134</v>
@@ -27965,7 +28119,7 @@
         <v>45485</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>135</v>
@@ -28045,7 +28199,7 @@
         <v>45485</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>136</v>
@@ -28125,7 +28279,7 @@
         <v>45485</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>137</v>
@@ -28208,7 +28362,7 @@
         <v>45485</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>138</v>
@@ -28291,7 +28445,7 @@
         <v>45485</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>139</v>
@@ -28374,7 +28528,7 @@
         <v>45485</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>140</v>
@@ -28457,7 +28611,7 @@
         <v>45485</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>141</v>
@@ -28540,7 +28694,7 @@
         <v>45485</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>142</v>
@@ -28623,7 +28777,7 @@
         <v>45485</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>143</v>
@@ -28706,7 +28860,7 @@
         <v>45485</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>144</v>
@@ -28789,7 +28943,7 @@
         <v>45485</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>145</v>
@@ -28872,7 +29026,7 @@
         <v>45485</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>146</v>
@@ -28955,7 +29109,7 @@
         <v>45485</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>147</v>
@@ -29038,7 +29192,7 @@
         <v>45485</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>148</v>
@@ -29121,7 +29275,7 @@
         <v>45485</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>149</v>
@@ -29204,7 +29358,7 @@
         <v>45485</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>150</v>
@@ -29287,7 +29441,7 @@
         <v>45485</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>151</v>
@@ -29370,7 +29524,7 @@
         <v>45485</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>152</v>
@@ -29453,7 +29607,7 @@
         <v>45485</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>153</v>
@@ -29536,7 +29690,7 @@
         <v>45485</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>154</v>
@@ -29619,7 +29773,7 @@
         <v>45485</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>155</v>
@@ -29702,7 +29856,7 @@
         <v>45485</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>156</v>
@@ -29785,7 +29939,7 @@
         <v>45485</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>157</v>
@@ -29868,7 +30022,7 @@
         <v>45485</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>158</v>
@@ -29951,7 +30105,7 @@
         <v>45485</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>159</v>
@@ -30034,7 +30188,7 @@
         <v>45485</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>160</v>
@@ -30117,7 +30271,7 @@
         <v>45485</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>161</v>
@@ -30200,7 +30354,7 @@
         <v>45485</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>162</v>
@@ -30283,7 +30437,7 @@
         <v>45485</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>163</v>
@@ -30366,7 +30520,7 @@
         <v>45485</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>164</v>
@@ -30449,7 +30603,7 @@
         <v>45485</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>165</v>
@@ -30532,7 +30686,7 @@
         <v>45485</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>166</v>
@@ -30615,7 +30769,7 @@
         <v>45485</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>167</v>
@@ -30698,7 +30852,7 @@
         <v>45485</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>168</v>
@@ -30781,7 +30935,7 @@
         <v>45485</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>169</v>
@@ -30864,7 +31018,7 @@
         <v>45485</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>170</v>
@@ -30947,7 +31101,7 @@
         <v>45485</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>171</v>
@@ -31030,7 +31184,7 @@
         <v>45485</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>172</v>
@@ -31113,7 +31267,7 @@
         <v>45485</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>173</v>
@@ -31196,7 +31350,7 @@
         <v>45485</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>174</v>
@@ -31279,7 +31433,7 @@
         <v>45485</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>175</v>
@@ -31362,7 +31516,7 @@
         <v>45485</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>176</v>
@@ -31445,7 +31599,7 @@
         <v>45485</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>177</v>
@@ -31528,7 +31682,7 @@
         <v>45485</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>178</v>
@@ -31611,7 +31765,7 @@
         <v>45485</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>179</v>
@@ -31694,7 +31848,7 @@
         <v>45485</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>180</v>
@@ -31777,7 +31931,7 @@
         <v>45485</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>181</v>
@@ -31860,7 +32014,7 @@
         <v>45485</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>182</v>
@@ -31943,7 +32097,7 @@
         <v>45485</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>183</v>
@@ -32026,7 +32180,7 @@
         <v>45485</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>184</v>
@@ -32109,7 +32263,7 @@
         <v>45485</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>185</v>
@@ -32192,7 +32346,7 @@
         <v>45485</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>186</v>
@@ -32275,7 +32429,7 @@
         <v>45485</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>187</v>
@@ -32358,7 +32512,7 @@
         <v>45485</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>188</v>
@@ -32441,7 +32595,7 @@
         <v>45485</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>189</v>
@@ -32524,7 +32678,7 @@
         <v>45485</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>190</v>
@@ -32607,7 +32761,7 @@
         <v>45485</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>191</v>
@@ -32690,7 +32844,7 @@
         <v>45485</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>192</v>
@@ -32773,7 +32927,7 @@
         <v>45485</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>193</v>
@@ -32856,7 +33010,7 @@
         <v>45485</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>194</v>
@@ -32939,7 +33093,7 @@
         <v>45485</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>195</v>
@@ -33022,7 +33176,7 @@
         <v>45485</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>196</v>
@@ -33105,7 +33259,7 @@
         <v>45485</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>197</v>
@@ -33188,7 +33342,7 @@
         <v>45485</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>198</v>
@@ -33271,7 +33425,7 @@
         <v>45485</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>199</v>
@@ -33354,7 +33508,7 @@
         <v>45485</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>200</v>
@@ -33437,7 +33591,7 @@
         <v>45485</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>200</v>
@@ -33517,7 +33671,7 @@
         <v>45485</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>201</v>
@@ -33600,7 +33754,7 @@
         <v>45485</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>202</v>
@@ -33683,7 +33837,7 @@
         <v>45485</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>203</v>
@@ -33766,7 +33920,7 @@
         <v>45485</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>204</v>
@@ -33849,7 +34003,7 @@
         <v>45485</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>205</v>
@@ -33932,7 +34086,7 @@
         <v>45485</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>206</v>
@@ -34015,7 +34169,7 @@
         <v>45485</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>207</v>
@@ -34098,7 +34252,7 @@
         <v>45485</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>208</v>
@@ -34181,7 +34335,7 @@
         <v>45485</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>209</v>
@@ -34264,7 +34418,7 @@
         <v>45485</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>210</v>
@@ -34347,7 +34501,7 @@
         <v>45485</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>211</v>
@@ -34430,7 +34584,7 @@
         <v>45485</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>212</v>
@@ -34513,7 +34667,7 @@
         <v>45485</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>213</v>
@@ -34596,7 +34750,7 @@
         <v>45485</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>15</v>
@@ -34679,7 +34833,7 @@
         <v>45485</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>21</v>
@@ -34762,7 +34916,7 @@
         <v>45485</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>23</v>
@@ -34845,7 +34999,7 @@
         <v>45485</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>25</v>
@@ -34928,7 +35082,7 @@
         <v>45485</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>27</v>
@@ -35011,7 +35165,7 @@
         <v>45485</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>29</v>
@@ -35094,7 +35248,7 @@
         <v>45485</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>30</v>
@@ -35177,7 +35331,7 @@
         <v>45485</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>33</v>
@@ -35260,7 +35414,7 @@
         <v>45485</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>34</v>
@@ -35343,7 +35497,7 @@
         <v>45485</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>35</v>
@@ -35426,7 +35580,7 @@
         <v>45486</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>36</v>
@@ -35509,7 +35663,7 @@
         <v>45486</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>38</v>
@@ -35592,7 +35746,7 @@
         <v>45486</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>39</v>
@@ -35675,7 +35829,7 @@
         <v>45486</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>40</v>
@@ -35758,7 +35912,7 @@
         <v>45486</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>41</v>
@@ -35841,7 +35995,7 @@
         <v>45486</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>42</v>
@@ -35921,7 +36075,7 @@
         <v>45486</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>43</v>
@@ -36004,7 +36158,7 @@
         <v>45486</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>44</v>
@@ -36087,7 +36241,7 @@
         <v>45486</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>45</v>
@@ -36170,7 +36324,7 @@
         <v>45486</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>46</v>
@@ -36253,7 +36407,7 @@
         <v>45486</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>47</v>
@@ -36336,7 +36490,7 @@
         <v>45486</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>48</v>
@@ -36419,7 +36573,7 @@
         <v>45486</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>49</v>
@@ -36502,7 +36656,7 @@
         <v>45486</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>50</v>
@@ -36585,7 +36739,7 @@
         <v>45486</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>51</v>
@@ -36668,7 +36822,7 @@
         <v>45486</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>52</v>
@@ -36751,7 +36905,7 @@
         <v>45486</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>53</v>
@@ -36834,7 +36988,7 @@
         <v>45486</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>54</v>
@@ -36917,7 +37071,7 @@
         <v>45486</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>55</v>
@@ -37000,7 +37154,7 @@
         <v>45486</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>56</v>
@@ -37083,7 +37237,7 @@
         <v>45486</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>57</v>
@@ -37166,7 +37320,7 @@
         <v>45486</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>58</v>
@@ -37249,7 +37403,7 @@
         <v>45486</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>59</v>
@@ -37332,7 +37486,7 @@
         <v>45486</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>60</v>
@@ -37415,7 +37569,7 @@
         <v>45486</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>61</v>
@@ -37498,7 +37652,7 @@
         <v>45486</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>62</v>
@@ -37581,7 +37735,7 @@
         <v>45486</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>63</v>
@@ -37664,7 +37818,7 @@
         <v>45486</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>64</v>
@@ -37747,7 +37901,7 @@
         <v>45486</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>65</v>
@@ -37830,7 +37984,7 @@
         <v>45486</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>66</v>
@@ -37913,7 +38067,7 @@
         <v>45486</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>67</v>
@@ -37996,7 +38150,7 @@
         <v>45486</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>68</v>
@@ -38079,7 +38233,7 @@
         <v>45486</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>69</v>
@@ -38162,7 +38316,7 @@
         <v>45486</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>70</v>
@@ -38242,7 +38396,7 @@
         <v>45486</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>71</v>
@@ -38325,7 +38479,7 @@
         <v>45486</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>72</v>
@@ -38408,7 +38562,7 @@
         <v>45486</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>73</v>
@@ -38491,7 +38645,7 @@
         <v>45486</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>74</v>
@@ -38574,7 +38728,7 @@
         <v>45486</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>75</v>
@@ -38654,7 +38808,7 @@
         <v>45486</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>76</v>
@@ -38737,7 +38891,7 @@
         <v>45486</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>77</v>
@@ -38820,7 +38974,7 @@
         <v>45486</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>78</v>
@@ -38903,7 +39057,7 @@
         <v>45486</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>79</v>
@@ -38986,7 +39140,7 @@
         <v>45486</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>80</v>
@@ -39069,7 +39223,7 @@
         <v>45486</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>81</v>
@@ -39152,7 +39306,7 @@
         <v>45486</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>82</v>
@@ -39235,7 +39389,7 @@
         <v>45486</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>83</v>
@@ -39318,7 +39472,7 @@
         <v>45486</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>84</v>
@@ -39401,7 +39555,7 @@
         <v>45486</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>85</v>
@@ -39484,7 +39638,7 @@
         <v>45486</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>85</v>
@@ -39567,7 +39721,7 @@
         <v>45486</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>86</v>
@@ -39650,7 +39804,7 @@
         <v>45486</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>87</v>
@@ -39733,7 +39887,7 @@
         <v>45486</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>88</v>
@@ -39816,7 +39970,7 @@
         <v>45486</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>89</v>
@@ -39899,7 +40053,7 @@
         <v>45486</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>90</v>
@@ -39979,7 +40133,7 @@
         <v>45486</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>91</v>
@@ -40062,7 +40216,7 @@
         <v>45486</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>92</v>
@@ -40145,7 +40299,7 @@
         <v>45486</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>93</v>
@@ -40228,7 +40382,7 @@
         <v>45486</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>94</v>
@@ -40311,7 +40465,7 @@
         <v>45486</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>95</v>
@@ -40394,7 +40548,7 @@
         <v>45486</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>96</v>
@@ -40477,7 +40631,7 @@
         <v>45486</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>97</v>
@@ -40560,7 +40714,7 @@
         <v>45486</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>98</v>
@@ -40643,7 +40797,7 @@
         <v>45486</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>99</v>
@@ -40726,7 +40880,7 @@
         <v>45486</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>100</v>
@@ -40809,7 +40963,7 @@
         <v>45486</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>101</v>
@@ -40892,7 +41046,7 @@
         <v>45486</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>102</v>
@@ -40975,7 +41129,7 @@
         <v>45486</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>103</v>
@@ -41058,7 +41212,7 @@
         <v>45486</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>104</v>
@@ -41141,7 +41295,7 @@
         <v>45486</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>105</v>
@@ -41224,7 +41378,7 @@
         <v>45486</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>106</v>
@@ -41307,7 +41461,7 @@
         <v>45486</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>108</v>
@@ -41390,7 +41544,7 @@
         <v>45486</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>109</v>
@@ -41473,7 +41627,7 @@
         <v>45486</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>110</v>
@@ -41556,7 +41710,7 @@
         <v>45486</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>111</v>
@@ -41639,7 +41793,7 @@
         <v>45486</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>112</v>
@@ -41722,7 +41876,7 @@
         <v>45486</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>113</v>
@@ -41805,7 +41959,7 @@
         <v>45486</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>114</v>
@@ -41888,7 +42042,7 @@
         <v>45486</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>115</v>
@@ -41971,7 +42125,7 @@
         <v>45486</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>116</v>
@@ -42054,7 +42208,7 @@
         <v>45486</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>117</v>
@@ -42137,7 +42291,7 @@
         <v>45486</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>118</v>
@@ -42220,7 +42374,7 @@
         <v>45486</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>119</v>
@@ -42303,7 +42457,7 @@
         <v>45486</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>120</v>
@@ -42386,7 +42540,7 @@
         <v>45486</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>121</v>
@@ -42469,7 +42623,7 @@
         <v>45486</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>122</v>
@@ -42552,7 +42706,7 @@
         <v>45486</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>123</v>
@@ -42635,7 +42789,7 @@
         <v>45486</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>124</v>
@@ -42718,7 +42872,7 @@
         <v>45486</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>125</v>
@@ -42801,7 +42955,7 @@
         <v>45486</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>126</v>
@@ -42884,7 +43038,7 @@
         <v>45486</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>127</v>
@@ -42967,7 +43121,7 @@
         <v>45486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>128</v>
@@ -43050,7 +43204,7 @@
         <v>45486</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>129</v>
@@ -43133,7 +43287,7 @@
         <v>45486</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>130</v>
@@ -43216,7 +43370,7 @@
         <v>45486</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>131</v>
@@ -43296,7 +43450,7 @@
         <v>45486</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>132</v>
@@ -43379,7 +43533,7 @@
         <v>45486</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>133</v>
@@ -43462,7 +43616,7 @@
         <v>45486</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>134</v>
@@ -43545,7 +43699,7 @@
         <v>45486</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>135</v>
@@ -43625,7 +43779,7 @@
         <v>45486</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>136</v>
@@ -43705,7 +43859,7 @@
         <v>45486</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>137</v>
@@ -43788,7 +43942,7 @@
         <v>45486</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>138</v>
@@ -43871,7 +44025,7 @@
         <v>45486</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>139</v>
@@ -43954,7 +44108,7 @@
         <v>45486</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>140</v>
@@ -44037,7 +44191,7 @@
         <v>45486</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>141</v>
@@ -44120,7 +44274,7 @@
         <v>45486</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>142</v>
@@ -44203,7 +44357,7 @@
         <v>45486</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>143</v>
@@ -44286,7 +44440,7 @@
         <v>45486</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>144</v>
@@ -44369,7 +44523,7 @@
         <v>45486</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>145</v>
@@ -44452,7 +44606,7 @@
         <v>45486</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>146</v>
@@ -44535,7 +44689,7 @@
         <v>45486</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>147</v>
@@ -44618,7 +44772,7 @@
         <v>45486</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>148</v>
@@ -44701,7 +44855,7 @@
         <v>45486</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>149</v>
@@ -44784,7 +44938,7 @@
         <v>45486</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>150</v>
@@ -44867,7 +45021,7 @@
         <v>45486</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>151</v>
@@ -44950,7 +45104,7 @@
         <v>45486</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>152</v>
@@ -45033,7 +45187,7 @@
         <v>45486</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>153</v>
@@ -45116,7 +45270,7 @@
         <v>45486</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>154</v>
@@ -45199,7 +45353,7 @@
         <v>45486</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>155</v>
@@ -45282,7 +45436,7 @@
         <v>45486</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>156</v>
@@ -45365,7 +45519,7 @@
         <v>45486</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>157</v>
@@ -45448,7 +45602,7 @@
         <v>45486</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>158</v>
@@ -45531,7 +45685,7 @@
         <v>45486</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>159</v>
@@ -45614,7 +45768,7 @@
         <v>45486</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>160</v>
@@ -45697,7 +45851,7 @@
         <v>45486</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>161</v>
@@ -45780,7 +45934,7 @@
         <v>45486</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>162</v>
@@ -45863,7 +46017,7 @@
         <v>45486</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>163</v>
@@ -45946,7 +46100,7 @@
         <v>45486</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>164</v>
@@ -46029,7 +46183,7 @@
         <v>45486</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>165</v>
@@ -46112,7 +46266,7 @@
         <v>45486</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>166</v>
@@ -46195,7 +46349,7 @@
         <v>45486</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>167</v>
@@ -46278,7 +46432,7 @@
         <v>45486</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>168</v>
@@ -46361,7 +46515,7 @@
         <v>45486</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>169</v>
@@ -46444,7 +46598,7 @@
         <v>45486</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>170</v>
@@ -46527,7 +46681,7 @@
         <v>45486</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>171</v>
@@ -46610,7 +46764,7 @@
         <v>45486</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>172</v>
@@ -46693,7 +46847,7 @@
         <v>45486</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>173</v>
@@ -46776,7 +46930,7 @@
         <v>45486</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>174</v>
@@ -46859,7 +47013,7 @@
         <v>45486</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>175</v>
@@ -46942,7 +47096,7 @@
         <v>45486</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>176</v>
@@ -47025,7 +47179,7 @@
         <v>45486</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>177</v>
@@ -47108,7 +47262,7 @@
         <v>45486</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>178</v>
@@ -47191,7 +47345,7 @@
         <v>45486</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>179</v>
@@ -47274,7 +47428,7 @@
         <v>45486</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>180</v>
@@ -47357,7 +47511,7 @@
         <v>45486</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>181</v>
@@ -47440,7 +47594,7 @@
         <v>45486</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>182</v>
@@ -47523,7 +47677,7 @@
         <v>45486</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>183</v>
@@ -47606,7 +47760,7 @@
         <v>45486</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>184</v>
@@ -47689,7 +47843,7 @@
         <v>45486</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>185</v>
@@ -47772,7 +47926,7 @@
         <v>45486</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>186</v>
@@ -47855,7 +48009,7 @@
         <v>45486</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>187</v>
@@ -47938,7 +48092,7 @@
         <v>45486</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>188</v>
@@ -48021,7 +48175,7 @@
         <v>45486</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>189</v>
@@ -48104,7 +48258,7 @@
         <v>45486</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>190</v>
@@ -48187,7 +48341,7 @@
         <v>45486</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>191</v>
@@ -48270,7 +48424,7 @@
         <v>45486</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>192</v>
@@ -48353,7 +48507,7 @@
         <v>45486</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>193</v>
@@ -48436,7 +48590,7 @@
         <v>45486</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>194</v>
@@ -48519,7 +48673,7 @@
         <v>45486</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>195</v>
@@ -48602,7 +48756,7 @@
         <v>45486</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>196</v>
@@ -48685,7 +48839,7 @@
         <v>45486</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>197</v>
@@ -48768,7 +48922,7 @@
         <v>45486</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>198</v>
@@ -48851,7 +49005,7 @@
         <v>45486</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>199</v>
@@ -48934,7 +49088,7 @@
         <v>45486</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>200</v>
@@ -49017,7 +49171,7 @@
         <v>45486</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>200</v>
@@ -49097,7 +49251,7 @@
         <v>45486</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>201</v>
@@ -49180,7 +49334,7 @@
         <v>45486</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>202</v>
@@ -49263,7 +49417,7 @@
         <v>45486</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>203</v>
@@ -49346,7 +49500,7 @@
         <v>45486</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>204</v>
@@ -49429,7 +49583,7 @@
         <v>45486</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>205</v>
@@ -49512,7 +49666,7 @@
         <v>45486</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>206</v>
@@ -49595,7 +49749,7 @@
         <v>45486</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>207</v>
@@ -49678,7 +49832,7 @@
         <v>45486</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>208</v>
@@ -49761,7 +49915,7 @@
         <v>45486</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>209</v>
@@ -49844,7 +49998,7 @@
         <v>45486</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>210</v>
@@ -49927,7 +50081,7 @@
         <v>45486</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>211</v>
@@ -50010,7 +50164,7 @@
         <v>45486</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>212</v>
@@ -50093,7 +50247,7 @@
         <v>45486</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>213</v>
@@ -50176,7 +50330,7 @@
         <v>45486</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>15</v>
@@ -50259,7 +50413,7 @@
         <v>45486</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>21</v>
@@ -50342,7 +50496,7 @@
         <v>45486</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>23</v>
@@ -50425,7 +50579,7 @@
         <v>45486</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>25</v>
@@ -50508,7 +50662,7 @@
         <v>45486</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>27</v>
@@ -50591,7 +50745,7 @@
         <v>45486</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>29</v>
@@ -50674,7 +50828,7 @@
         <v>45486</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>30</v>
@@ -50757,7 +50911,7 @@
         <v>45486</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>33</v>
@@ -50840,7 +50994,7 @@
         <v>45486</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>34</v>
@@ -50923,7 +51077,7 @@
         <v>45486</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>35</v>
@@ -51006,7 +51160,7 @@
         <v>45487</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>36</v>
@@ -51089,7 +51243,7 @@
         <v>45487</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>38</v>
@@ -51172,7 +51326,7 @@
         <v>45487</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>39</v>
@@ -51255,7 +51409,7 @@
         <v>45487</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>40</v>
@@ -51338,7 +51492,7 @@
         <v>45487</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>41</v>
@@ -51421,7 +51575,7 @@
         <v>45487</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>42</v>
@@ -51501,7 +51655,7 @@
         <v>45487</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>43</v>
@@ -51584,7 +51738,7 @@
         <v>45487</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>44</v>
@@ -51667,7 +51821,7 @@
         <v>45487</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>45</v>
@@ -51750,7 +51904,7 @@
         <v>45487</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>46</v>
@@ -51833,7 +51987,7 @@
         <v>45487</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>47</v>
@@ -51916,7 +52070,7 @@
         <v>45487</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>48</v>
@@ -51999,7 +52153,7 @@
         <v>45487</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>49</v>
@@ -52082,7 +52236,7 @@
         <v>45487</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>50</v>
@@ -52165,7 +52319,7 @@
         <v>45487</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>51</v>
@@ -52248,7 +52402,7 @@
         <v>45487</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>52</v>
@@ -52331,7 +52485,7 @@
         <v>45487</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>53</v>
@@ -52414,7 +52568,7 @@
         <v>45487</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>54</v>
@@ -52497,7 +52651,7 @@
         <v>45487</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>55</v>
@@ -52580,7 +52734,7 @@
         <v>45487</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>56</v>
@@ -52663,7 +52817,7 @@
         <v>45487</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>57</v>
@@ -52746,7 +52900,7 @@
         <v>45487</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>58</v>
@@ -52829,7 +52983,7 @@
         <v>45487</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>59</v>
@@ -52912,7 +53066,7 @@
         <v>45487</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>60</v>
@@ -52995,7 +53149,7 @@
         <v>45487</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>61</v>
@@ -53078,7 +53232,7 @@
         <v>45487</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>62</v>
@@ -53161,7 +53315,7 @@
         <v>45487</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>63</v>
@@ -53244,7 +53398,7 @@
         <v>45487</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>64</v>
@@ -53327,7 +53481,7 @@
         <v>45487</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>65</v>
@@ -53410,7 +53564,7 @@
         <v>45487</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>66</v>
@@ -53493,7 +53647,7 @@
         <v>45487</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>67</v>
@@ -53576,7 +53730,7 @@
         <v>45487</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>68</v>
@@ -53659,7 +53813,7 @@
         <v>45487</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>69</v>
@@ -53742,7 +53896,7 @@
         <v>45487</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>70</v>
@@ -53822,7 +53976,7 @@
         <v>45487</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>71</v>
@@ -53905,7 +54059,7 @@
         <v>45487</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>72</v>
@@ -53988,7 +54142,7 @@
         <v>45487</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>73</v>
@@ -54071,7 +54225,7 @@
         <v>45487</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>74</v>
@@ -54154,7 +54308,7 @@
         <v>45487</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>75</v>
@@ -54234,7 +54388,7 @@
         <v>45487</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>76</v>
@@ -54317,7 +54471,7 @@
         <v>45487</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>77</v>
@@ -54400,7 +54554,7 @@
         <v>45487</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>78</v>
@@ -54483,7 +54637,7 @@
         <v>45487</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>79</v>
@@ -54566,7 +54720,7 @@
         <v>45487</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>80</v>
@@ -54649,7 +54803,7 @@
         <v>45487</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>81</v>
@@ -54732,7 +54886,7 @@
         <v>45487</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>82</v>
@@ -54815,7 +54969,7 @@
         <v>45487</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>83</v>
@@ -54898,7 +55052,7 @@
         <v>45487</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>84</v>
@@ -54981,7 +55135,7 @@
         <v>45487</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>85</v>
@@ -55064,7 +55218,7 @@
         <v>45487</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>85</v>
@@ -55147,7 +55301,7 @@
         <v>45487</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>86</v>
@@ -55230,7 +55384,7 @@
         <v>45487</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>87</v>
@@ -55313,7 +55467,7 @@
         <v>45487</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>88</v>
@@ -55396,7 +55550,7 @@
         <v>45487</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>89</v>
@@ -55479,7 +55633,7 @@
         <v>45487</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>90</v>
@@ -55559,7 +55713,7 @@
         <v>45487</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>91</v>
@@ -55642,7 +55796,7 @@
         <v>45487</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>92</v>
@@ -55725,7 +55879,7 @@
         <v>45487</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>93</v>
@@ -55808,7 +55962,7 @@
         <v>45487</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>94</v>
@@ -55891,7 +56045,7 @@
         <v>45487</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>95</v>
@@ -55974,7 +56128,7 @@
         <v>45487</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>96</v>
@@ -56057,7 +56211,7 @@
         <v>45487</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>97</v>
@@ -56140,7 +56294,7 @@
         <v>45487</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>98</v>
@@ -56223,7 +56377,7 @@
         <v>45487</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>99</v>
@@ -56306,7 +56460,7 @@
         <v>45487</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>100</v>
@@ -56389,7 +56543,7 @@
         <v>45487</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>101</v>
@@ -56472,7 +56626,7 @@
         <v>45487</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>102</v>
@@ -56555,7 +56709,7 @@
         <v>45487</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>103</v>
@@ -56638,7 +56792,7 @@
         <v>45487</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>104</v>
@@ -56721,7 +56875,7 @@
         <v>45487</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>105</v>
@@ -56804,7 +56958,7 @@
         <v>45487</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>106</v>
@@ -56887,7 +57041,7 @@
         <v>45487</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>108</v>
@@ -56970,7 +57124,7 @@
         <v>45487</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>109</v>
@@ -57053,7 +57207,7 @@
         <v>45487</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>110</v>
@@ -57136,7 +57290,7 @@
         <v>45487</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>111</v>
@@ -57219,7 +57373,7 @@
         <v>45487</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>112</v>
@@ -57302,7 +57456,7 @@
         <v>45487</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>113</v>
@@ -57385,7 +57539,7 @@
         <v>45487</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>114</v>
@@ -57468,7 +57622,7 @@
         <v>45487</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>115</v>
@@ -57551,7 +57705,7 @@
         <v>45487</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>116</v>
@@ -57634,7 +57788,7 @@
         <v>45487</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>117</v>
@@ -57717,7 +57871,7 @@
         <v>45487</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>118</v>
@@ -57800,7 +57954,7 @@
         <v>45487</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>119</v>
@@ -57883,7 +58037,7 @@
         <v>45487</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>120</v>
@@ -57966,7 +58120,7 @@
         <v>45487</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>121</v>
@@ -58049,7 +58203,7 @@
         <v>45487</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>122</v>
@@ -58132,7 +58286,7 @@
         <v>45487</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>123</v>
@@ -58215,7 +58369,7 @@
         <v>45487</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>124</v>
@@ -58298,7 +58452,7 @@
         <v>45487</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>125</v>
@@ -58381,7 +58535,7 @@
         <v>45487</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>126</v>
@@ -58464,7 +58618,7 @@
         <v>45487</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>127</v>
@@ -58547,7 +58701,7 @@
         <v>45487</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>128</v>
@@ -58630,7 +58784,7 @@
         <v>45487</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>129</v>
@@ -58713,7 +58867,7 @@
         <v>45487</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>130</v>
@@ -58796,7 +58950,7 @@
         <v>45487</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>131</v>
@@ -58876,7 +59030,7 @@
         <v>45487</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>132</v>
@@ -58959,7 +59113,7 @@
         <v>45487</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>133</v>
@@ -59042,7 +59196,7 @@
         <v>45487</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>134</v>
@@ -59125,7 +59279,7 @@
         <v>45487</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>135</v>
@@ -59205,7 +59359,7 @@
         <v>45487</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>136</v>
@@ -59285,7 +59439,7 @@
         <v>45487</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>137</v>
@@ -59368,7 +59522,7 @@
         <v>45487</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>138</v>
@@ -59451,7 +59605,7 @@
         <v>45487</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>139</v>
@@ -59534,7 +59688,7 @@
         <v>45487</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>140</v>
@@ -59617,7 +59771,7 @@
         <v>45487</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>141</v>
@@ -59700,7 +59854,7 @@
         <v>45487</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>142</v>
@@ -59783,7 +59937,7 @@
         <v>45487</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>143</v>
@@ -59866,7 +60020,7 @@
         <v>45487</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>144</v>
@@ -59949,7 +60103,7 @@
         <v>45487</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>145</v>
@@ -60032,7 +60186,7 @@
         <v>45487</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>146</v>
@@ -60115,7 +60269,7 @@
         <v>45487</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>147</v>
@@ -60198,7 +60352,7 @@
         <v>45487</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>148</v>
@@ -60281,7 +60435,7 @@
         <v>45487</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>149</v>
@@ -60364,7 +60518,7 @@
         <v>45487</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>150</v>
@@ -60447,7 +60601,7 @@
         <v>45487</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>151</v>
@@ -60530,7 +60684,7 @@
         <v>45487</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>152</v>
@@ -60613,7 +60767,7 @@
         <v>45487</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>153</v>
@@ -60696,7 +60850,7 @@
         <v>45487</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>154</v>
@@ -60779,7 +60933,7 @@
         <v>45487</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>155</v>
@@ -60862,7 +61016,7 @@
         <v>45487</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>156</v>
@@ -60945,7 +61099,7 @@
         <v>45487</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>157</v>
@@ -61028,7 +61182,7 @@
         <v>45487</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>158</v>
@@ -61111,7 +61265,7 @@
         <v>45487</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>159</v>
@@ -61194,7 +61348,7 @@
         <v>45487</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>160</v>
@@ -61277,7 +61431,7 @@
         <v>45487</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>161</v>
@@ -61360,7 +61514,7 @@
         <v>45487</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>162</v>
@@ -61443,7 +61597,7 @@
         <v>45487</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>163</v>
@@ -61526,7 +61680,7 @@
         <v>45487</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>164</v>
@@ -61609,7 +61763,7 @@
         <v>45487</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>165</v>
@@ -61692,7 +61846,7 @@
         <v>45487</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>166</v>
@@ -61775,7 +61929,7 @@
         <v>45487</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>167</v>
@@ -61858,7 +62012,7 @@
         <v>45487</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>168</v>
@@ -61941,7 +62095,7 @@
         <v>45487</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>169</v>
@@ -62024,7 +62178,7 @@
         <v>45487</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>170</v>
@@ -62107,7 +62261,7 @@
         <v>45487</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>171</v>
@@ -62190,7 +62344,7 @@
         <v>45487</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>172</v>
@@ -62273,7 +62427,7 @@
         <v>45487</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>173</v>
@@ -62356,7 +62510,7 @@
         <v>45487</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>174</v>
@@ -62439,7 +62593,7 @@
         <v>45487</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>175</v>
@@ -62522,7 +62676,7 @@
         <v>45487</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>176</v>
@@ -62605,7 +62759,7 @@
         <v>45487</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>177</v>
@@ -62688,7 +62842,7 @@
         <v>45487</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>178</v>
@@ -62771,7 +62925,7 @@
         <v>45487</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>179</v>
@@ -62854,7 +63008,7 @@
         <v>45487</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>180</v>
@@ -62937,7 +63091,7 @@
         <v>45487</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>181</v>
@@ -63020,7 +63174,7 @@
         <v>45487</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>182</v>
@@ -63103,7 +63257,7 @@
         <v>45487</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>183</v>
@@ -63186,7 +63340,7 @@
         <v>45487</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>184</v>
@@ -63269,7 +63423,7 @@
         <v>45487</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>185</v>
@@ -63352,7 +63506,7 @@
         <v>45487</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>186</v>
@@ -63435,7 +63589,7 @@
         <v>45487</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>187</v>
@@ -63518,7 +63672,7 @@
         <v>45487</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>188</v>
@@ -63601,7 +63755,7 @@
         <v>45487</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>189</v>
@@ -63684,7 +63838,7 @@
         <v>45487</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>190</v>
@@ -63767,7 +63921,7 @@
         <v>45487</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>191</v>
@@ -63850,7 +64004,7 @@
         <v>45487</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>192</v>
@@ -63933,7 +64087,7 @@
         <v>45487</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>193</v>
@@ -64016,7 +64170,7 @@
         <v>45487</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>194</v>
@@ -64099,7 +64253,7 @@
         <v>45487</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>195</v>
@@ -64182,7 +64336,7 @@
         <v>45487</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>196</v>
@@ -64265,7 +64419,7 @@
         <v>45487</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>197</v>
@@ -64348,7 +64502,7 @@
         <v>45487</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>198</v>
@@ -64431,7 +64585,7 @@
         <v>45487</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>199</v>
@@ -64514,7 +64668,7 @@
         <v>45487</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>200</v>
@@ -64597,7 +64751,7 @@
         <v>45487</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>200</v>
@@ -64677,7 +64831,7 @@
         <v>45487</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>201</v>
@@ -64760,7 +64914,7 @@
         <v>45487</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>202</v>
@@ -64843,7 +64997,7 @@
         <v>45487</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>203</v>
@@ -64926,7 +65080,7 @@
         <v>45487</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>204</v>
@@ -65009,7 +65163,7 @@
         <v>45487</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>205</v>
@@ -65092,7 +65246,7 @@
         <v>45487</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>206</v>
@@ -65175,7 +65329,7 @@
         <v>45487</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>207</v>
@@ -65258,7 +65412,7 @@
         <v>45487</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>208</v>
@@ -65341,7 +65495,7 @@
         <v>45487</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>209</v>
@@ -65424,7 +65578,7 @@
         <v>45487</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>210</v>
@@ -65507,7 +65661,7 @@
         <v>45487</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>211</v>
@@ -65590,7 +65744,7 @@
         <v>45487</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>212</v>
@@ -65673,7 +65827,7 @@
         <v>45487</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>213</v>
